--- a/data/考研帮登入.xlsx
+++ b/data/考研帮登入.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9960" windowWidth="22943"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9552" windowWidth="22943"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="登入名和密码" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="登录名和密码" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="登录" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="测试数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="购买流程" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -29,8 +31,16 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color rgb="FF008B00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -43,13 +53,52 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FFFF3030"/>
+      <color rgb="FF008B00"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,31 +135,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -125,6 +157,36 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
@@ -139,54 +201,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FF008B00"/>
-    </font>
-    <font>
-      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="33">
@@ -198,6 +213,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,37 +255,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,134 +397,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -404,17 +419,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +461,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,185 +519,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="18" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="11" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="8" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="8" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="16" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -672,18 +686,15 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1002,13 +1013,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
     <col customWidth="1" max="3" min="2" width="19.3796296296296"/>
     <col customWidth="1" max="4" min="4" width="20.75"/>
@@ -1017,86 +1028,128 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>用例描述</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>调用框架类型</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>步骤sheet名</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>数据驱动的数据源sheet名</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>执行结束时间</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
-        <is>
-          <t>结果</t>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>执行结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>考研帮登入</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>使用用户名和密码登入</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>数据</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>登入名和密码</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>登录名和密码</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>2019-10-19 10:47:33</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>faild</t>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:51</t>
+        </is>
+      </c>
+      <c r="H2" s="16" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>考研帮登入</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>使用用户名和密码登入</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>购买流程</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>测试数据</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="G3" s="14" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:53:17</t>
+        </is>
+      </c>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1168,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -1169,10 +1222,10 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:36</t>
-        </is>
-      </c>
-      <c r="E2" s="13" t="inlineStr">
+          <t>2019-10-20 13:51:50</t>
+        </is>
+      </c>
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1190,23 +1243,492 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="14.1296296296296"/>
-    <col customWidth="1" max="2" min="2" style="1" width="21.3333333333333"/>
+    <col customWidth="1" max="2" min="2" style="7" width="21.3333333333333"/>
     <col customWidth="1" max="3" min="3" width="11.6296296296296"/>
-    <col customWidth="1" max="4" min="4" style="1" width="49"/>
-    <col customWidth="1" max="5" min="5" style="1" width="31.4444444444444"/>
+    <col customWidth="1" max="4" min="4" style="7" width="49"/>
+    <col customWidth="1" max="5" min="5" style="7" width="31.4444444444444"/>
     <col customWidth="1" max="6" min="6" width="19.75"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>测试步骤描述</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>操作元素的定位方式</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>操作元素的定位表达式</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>操作值</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>测试执行时间</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>错误截图</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>打开app</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>open_app</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:01</t>
+        </is>
+      </c>
+      <c r="G2" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr"/>
+      <c r="I2" s="8" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:08</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr"/>
+      <c r="I3" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>打开网址</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>visit_url</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>https://mall.gree.com</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:13</t>
+        </is>
+      </c>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr"/>
+      <c r="I4" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>get_context</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:18</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr"/>
+      <c r="I5" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>切换到webview</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>switch_to_context</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>WEBVIEW_chrome</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:26</t>
+        </is>
+      </c>
+      <c r="G6" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr"/>
+      <c r="I6" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:34</t>
+        </is>
+      </c>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr"/>
+      <c r="I7" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>点击我的</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[3]/div[1]/div[1]/div/a[3]/div</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:39</t>
+        </is>
+      </c>
+      <c r="G8" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>关闭app</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>quit_app</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:51:46</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17.6666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>执行结束时间</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>执行结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mengzhong100</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>329zjq329</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>2019-10-20 13:13:46</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="28.5" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>测试步骤描述</t>
@@ -1253,7 +1775,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customFormat="1" r="2" s="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>打开app</t>
@@ -1269,10 +1791,10 @@
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:13</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:17</t>
+        </is>
+      </c>
+      <c r="G2" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1280,7 +1802,7 @@
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
     </row>
-    <row r="3">
+    <row customFormat="1" r="3" s="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>等待</t>
@@ -1298,10 +1820,10 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:17</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:25</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1309,7 +1831,7 @@
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="4">
+    <row customFormat="1" customHeight="1" ht="28.8" r="4" s="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>打开网址</t>
@@ -1329,10 +1851,10 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:18</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:31</t>
+        </is>
+      </c>
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1340,7 +1862,7 @@
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="5">
+    <row customFormat="1" customHeight="1" ht="28.8" r="5" s="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>查看</t>
@@ -1356,10 +1878,10 @@
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:18</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:37</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1367,7 +1889,7 @@
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="6">
+    <row customFormat="1" customHeight="1" ht="28.8" r="6" s="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>切换到webview</t>
@@ -1387,10 +1909,10 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:22</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:46</t>
+        </is>
+      </c>
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1398,7 +1920,7 @@
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="7">
+    <row customFormat="1" customHeight="1" ht="28.8" r="7" s="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>等待</t>
@@ -1416,10 +1938,10 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:26</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="inlineStr">
+          <t>2019-10-20 13:52:55</t>
+        </is>
+      </c>
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1427,7 +1949,7 @@
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="8">
+    <row customFormat="1" customHeight="1" ht="28.8" r="8" s="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>点击我的</t>
@@ -1451,10 +1973,10 @@
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:26</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
+          <t>2019-10-20 13:53:01</t>
+        </is>
+      </c>
+      <c r="G8" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1462,28 +1984,26 @@
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="9">
+    <row customFormat="1" customHeight="1" ht="28.8" r="9" s="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>等待</t>
+          <t>关闭app</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>quit_app</t>
         </is>
       </c>
       <c r="C9" s="2" t="n"/>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="E9" s="3" t="n"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2019-10-20 08:16:30</t>
-        </is>
-      </c>
-      <c r="G9" s="10" t="inlineStr">
+          <t>2019-10-20 13:53:10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1491,338 +2011,97 @@
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="28.8" r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>/html/body/div[1]/div[1]/section/div/div[3]/ul/li[1]/img</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:30</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>//*[@id="searchlist-normal"]</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:31</t>
-        </is>
-      </c>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>//*[@id="directorder"]</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:32</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>/html/body/div[1]/div[1]/div[7]/div[2]/div[3]/button</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:33</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>/html/body/div[1]/div[1]/div[2]/div[1]/div[2]/div/input</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>18813727290</v>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:34</t>
-        </is>
-      </c>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>/html/body/div[1]/div[1]/div[2]/div[1]/div[3]/div/input</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>qq123456</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:35</t>
-        </is>
-      </c>
-      <c r="G15" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>/html/body/div[1]/div[1]/div[2]/p[1]</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2019-10-20 08:16:35</t>
-        </is>
-      </c>
-      <c r="G16" s="10" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
-    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId77"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
+    <hyperlink display="https://mall.gree.com" ref="E4" r:id="rId88"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>